--- a/KEY.xlsx
+++ b/KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PBI Ban\Python Project\DrugDB_APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D93A5-7C36-419B-9B65-958677C64F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC06AED-13A5-4233-83E6-46E4220583A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F92ABCF-AFE1-4C3A-9245-18C340336880}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="14655" windowHeight="15480" xr2:uid="{0F92ABCF-AFE1-4C3A-9245-18C340336880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,36 +41,6 @@
     <t xml:space="preserve">HAUNH0 </t>
   </si>
   <si>
-    <t xml:space="preserve">LONGLA0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGHIALT0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAILTN0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OANHSH0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THIENLT0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNHK0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHANHLH0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUANVD0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHITLM0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAOHTX0 </t>
-  </si>
-  <si>
     <t>eXZkfHoA</t>
   </si>
   <si>
@@ -111,6 +81,36 @@
   </si>
   <si>
     <t>TUYETLN0</t>
+  </si>
+  <si>
+    <t>LONGLA0</t>
+  </si>
+  <si>
+    <t>NGHIALT0</t>
+  </si>
+  <si>
+    <t>MAILTN0</t>
+  </si>
+  <si>
+    <t>OANHSH0</t>
+  </si>
+  <si>
+    <t>THIENLT0</t>
+  </si>
+  <si>
+    <t>ANNHK0</t>
+  </si>
+  <si>
+    <t>KHANHLH0</t>
+  </si>
+  <si>
+    <t>QUANVD0</t>
+  </si>
+  <si>
+    <t>NHITLM0</t>
+  </si>
+  <si>
+    <t>THAOHTX0</t>
   </si>
 </sst>
 </file>
@@ -506,98 +506,98 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
